--- a/Jogos_da_Semana_FlashScore_2025-02-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-04.xlsx
@@ -710,10 +710,10 @@
         <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.44</v>
@@ -722,16 +722,16 @@
         <v>2.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R2" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S2" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="T2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U2" t="n">
         <v>3.8</v>
@@ -990,7 +990,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H4" t="n">
         <v>3.9</v>
@@ -999,7 +999,7 @@
         <v>8</v>
       </c>
       <c r="J4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
@@ -1011,21 +1011,21 @@
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
@@ -1079,13 +1079,13 @@
       </c>
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO4" t="n">
         <v>41</v>
       </c>
       <c r="AP4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ4" t="n">
         <v>101</v>
@@ -1129,16 +1129,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
         <v>1.95</v>
@@ -1200,16 +1200,16 @@
         <v>10</v>
       </c>
       <c r="AF5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG5" t="n">
         <v>23</v>
       </c>
-      <c r="AG5" t="n">
-        <v>21</v>
-      </c>
       <c r="AH5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AJ5" t="n">
         <v>6</v>
@@ -1221,22 +1221,22 @@
         <v>67</v>
       </c>
       <c r="AM5" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AN5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AO5" t="n">
         <v>13</v>
       </c>
       <c r="AP5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AS5" t="n">
         <v>41</v>
@@ -1292,10 +1292,10 @@
         <v>2.88</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
         <v>1.25</v>
@@ -1306,10 +1306,10 @@
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T6" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
@@ -1433,10 +1433,10 @@
         <v>2.88</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
         <v>1.25</v>
@@ -1447,10 +1447,10 @@
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T7" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-04.xlsx
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J2" t="n">
         <v>4.33</v>
@@ -710,10 +710,10 @@
         <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>1.44</v>
@@ -722,19 +722,19 @@
         <v>2.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="U2" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="V2" t="n">
         <v>1.27</v>
@@ -752,10 +752,10 @@
         <v>2.38</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AC2" t="n">
         <v>8.5</v>
@@ -791,7 +791,7 @@
         <v>451</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO2" t="n">
         <v>9.5</v>
@@ -1011,7 +1011,7 @@
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.4</v>
@@ -1094,7 +1094,7 @@
         <v>67</v>
       </c>
       <c r="AS4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -1144,13 +1144,13 @@
         <v>1.95</v>
       </c>
       <c r="L5" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.44</v>
@@ -1209,7 +1209,7 @@
         <v>41</v>
       </c>
       <c r="AI5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AJ5" t="n">
         <v>6</v>
@@ -1218,10 +1218,10 @@
         <v>17</v>
       </c>
       <c r="AL5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM5" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AN5" t="n">
         <v>7.5</v>
@@ -1559,13 +1559,13 @@
         <v>3.25</v>
       </c>
       <c r="H8" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="J8" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K8" t="n">
         <v>2.15</v>
@@ -1580,18 +1580,18 @@
         <v>7.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T8" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="U8" t="n">
         <v>2.27</v>
@@ -1600,22 +1600,22 @@
         <v>1.6</v>
       </c>
       <c r="W8" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="X8" t="n">
         <v>1.38</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="AA8" t="n">
         <v>1.65</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="AC8" t="n">
         <v>11.25</v>
@@ -1630,7 +1630,7 @@
         <v>45</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH8" t="n">
         <v>30</v>
@@ -1639,7 +1639,7 @@
         <v>7.8</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AK8" t="n">
         <v>13</v>
@@ -1663,7 +1663,7 @@
         <v>19</v>
       </c>
       <c r="AR8" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AS8" t="n">
         <v>24</v>
@@ -1700,45 +1700,111 @@
           <t>Shabab Al-Ahli Dubai</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="J9" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.57</v>
+      </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
+      <c r="O9" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P9" t="n">
+        <v>6</v>
+      </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.15</v>
+      </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr"/>
-      <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
-      <c r="AS9" t="inlineStr"/>
+      <c r="W9" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>100</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>300</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>110</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>350</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-04.xlsx
@@ -692,22 +692,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
         <v>1.95</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M2" t="n">
         <v>1.1</v>
@@ -752,10 +752,10 @@
         <v>2.38</v>
       </c>
       <c r="AA2" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AC2" t="n">
         <v>8.5</v>
@@ -788,19 +788,19 @@
         <v>67</v>
       </c>
       <c r="AM2" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP2" t="n">
         <v>9.5</v>
       </c>
       <c r="AQ2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR2" t="n">
         <v>21</v>
@@ -841,13 +841,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H3" t="n">
         <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J3" t="n">
         <v>2.4</v>
@@ -916,7 +916,7 @@
         <v>9</v>
       </c>
       <c r="AF3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG3" t="n">
         <v>17</v>
@@ -943,10 +943,10 @@
         <v>11</v>
       </c>
       <c r="AO3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ3" t="n">
         <v>67</v>
@@ -990,7 +990,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H4" t="n">
         <v>3.9</v>
@@ -1011,7 +1011,7 @@
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
         <v>1.4</v>
@@ -1057,7 +1057,7 @@
         <v>9</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG4" t="n">
         <v>15</v>
@@ -1094,7 +1094,7 @@
         <v>67</v>
       </c>
       <c r="AS4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
@@ -1147,10 +1147,10 @@
         <v>3.6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
         <v>1.44</v>
@@ -1274,22 +1274,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="H6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J6" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.6</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
@@ -1332,25 +1332,25 @@
         <v>2.1</v>
       </c>
       <c r="AC6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE6" t="n">
         <v>11</v>
       </c>
       <c r="AF6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH6" t="n">
         <v>29</v>
       </c>
       <c r="AI6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ6" t="n">
         <v>6.5</v>
@@ -1365,22 +1365,22 @@
         <v>151</v>
       </c>
       <c r="AN6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AQ6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AS6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -1785,7 +1785,7 @@
         <v>70</v>
       </c>
       <c r="AM9" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AN9" t="n">
         <v>11.75</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-04.xlsx
@@ -859,22 +859,22 @@
         <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R3" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S3" t="n">
         <v>2.5</v>
@@ -990,16 +990,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="H4" t="n">
         <v>3.9</v>
       </c>
       <c r="I4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
@@ -1022,10 +1022,10 @@
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
@@ -1051,13 +1051,13 @@
         <v>5</v>
       </c>
       <c r="AD4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
       </c>
       <c r="AF4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG4" t="n">
         <v>15</v>
@@ -1085,7 +1085,7 @@
         <v>41</v>
       </c>
       <c r="AP4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ4" t="n">
         <v>101</v>
@@ -1094,7 +1094,7 @@
         <v>67</v>
       </c>
       <c r="AS4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -1274,22 +1274,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
@@ -1332,7 +1332,7 @@
         <v>2.1</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD6" t="n">
         <v>15</v>
@@ -1344,7 +1344,7 @@
         <v>29</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH6" t="n">
         <v>29</v>
@@ -1365,13 +1365,13 @@
         <v>151</v>
       </c>
       <c r="AN6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP6" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>10</v>
       </c>
       <c r="AQ6" t="n">
         <v>23</v>
@@ -1556,28 +1556,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I8" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="J8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L8" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
@@ -1591,7 +1591,7 @@
         <v>1.75</v>
       </c>
       <c r="T8" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="U8" t="n">
         <v>2.27</v>
@@ -1600,73 +1600,73 @@
         <v>1.6</v>
       </c>
       <c r="W8" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="X8" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="AA8" t="n">
         <v>1.65</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AE8" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AF8" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG8" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AH8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI8" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AK8" t="n">
         <v>13</v>
       </c>
       <c r="AL8" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM8" t="n">
         <v>350</v>
       </c>
       <c r="AN8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP8" t="n">
         <v>8.25</v>
       </c>
-      <c r="AO8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AQ8" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AR8" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AS8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">

--- a/Jogos_da_Semana_FlashScore_2025-02-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-04.xlsx
@@ -990,16 +990,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H4" t="n">
         <v>3.9</v>
       </c>
       <c r="I4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
@@ -1051,7 +1051,7 @@
         <v>5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
@@ -1085,7 +1085,7 @@
         <v>41</v>
       </c>
       <c r="AP4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ4" t="n">
         <v>101</v>
@@ -1094,7 +1094,7 @@
         <v>67</v>
       </c>
       <c r="AS4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
@@ -1129,13 +1129,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J5" t="n">
         <v>3.4</v>
@@ -1147,10 +1147,10 @@
         <v>3.6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.44</v>
@@ -1194,7 +1194,7 @@
         <v>7</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE5" t="n">
         <v>10</v>
@@ -1556,42 +1556,42 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="H8" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="I8" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K8" t="n">
         <v>2.18</v>
       </c>
       <c r="L8" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="P8" t="n">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="T8" t="n">
-        <v>1.98</v>
+        <v>1.78</v>
       </c>
       <c r="U8" t="n">
         <v>2.27</v>
@@ -1600,73 +1600,73 @@
         <v>1.6</v>
       </c>
       <c r="W8" t="n">
-        <v>2.77</v>
+        <v>3.25</v>
       </c>
       <c r="X8" t="n">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="Y8" t="n">
         <v>1.37</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AC8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE8" t="n">
         <v>12.5</v>
       </c>
-      <c r="AD8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>12</v>
-      </c>
       <c r="AF8" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG8" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AH8" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AI8" t="n">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AM8" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="AN8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP8" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AQ8" t="n">
         <v>16.5</v>
       </c>
       <c r="AR8" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AS8" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">

--- a/Jogos_da_Semana_FlashScore_2025-02-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-04.xlsx
@@ -847,7 +847,7 @@
         <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
         <v>2.4</v>
@@ -895,10 +895,10 @@
         <v>1.17</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA3" t="n">
         <v>2.25</v>
@@ -943,10 +943,10 @@
         <v>11</v>
       </c>
       <c r="AO3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ3" t="n">
         <v>67</v>
@@ -955,7 +955,7 @@
         <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -1014,10 +1014,10 @@
         <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
@@ -1057,7 +1057,7 @@
         <v>9</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG4" t="n">
         <v>15</v>
@@ -1147,10 +1147,10 @@
         <v>3.6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
         <v>1.44</v>
@@ -1280,7 +1280,7 @@
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J6" t="n">
         <v>3.5</v>
@@ -1374,7 +1374,7 @@
         <v>9.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR6" t="n">
         <v>19</v>
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H8" t="n">
         <v>3.35</v>
@@ -1565,10 +1565,10 @@
         <v>1.93</v>
       </c>
       <c r="J8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K8" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L8" t="n">
         <v>2.45</v>
@@ -1577,21 +1577,21 @@
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="P8" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="T8" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="U8" t="n">
         <v>2.27</v>
@@ -1600,61 +1600,61 @@
         <v>1.6</v>
       </c>
       <c r="W8" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="X8" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD8" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
         <v>55</v>
       </c>
       <c r="AG8" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH8" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI8" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AJ8" t="n">
         <v>6.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AL8" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AM8" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AN8" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AO8" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AP8" t="n">
         <v>8.5</v>
@@ -1663,10 +1663,10 @@
         <v>16.5</v>
       </c>
       <c r="AR8" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AS8" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -1701,16 +1701,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="H9" t="n">
         <v>6.2</v>
       </c>
       <c r="I9" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="J9" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="K9" t="n">
         <v>2.92</v>
@@ -1721,26 +1721,26 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="P9" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="T9" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X9" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="Y9" t="n">
         <v>1.2</v>
@@ -1749,16 +1749,16 @@
         <v>4.05</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="AB9" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AC9" t="n">
         <v>40</v>
       </c>
       <c r="AD9" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AE9" t="n">
         <v>32</v>
@@ -1773,10 +1773,10 @@
         <v>70</v>
       </c>
       <c r="AI9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ9" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK9" t="n">
         <v>21</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-04.xlsx
@@ -990,22 +990,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="H4" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -1042,22 +1042,22 @@
         <v>2.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AC4" t="n">
         <v>5</v>
       </c>
       <c r="AD4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
       </c>
       <c r="AF4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG4" t="n">
         <v>15</v>
@@ -1069,32 +1069,32 @@
         <v>7.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
         <v>101</v>
       </c>
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR4" t="n">
         <v>67</v>
       </c>
       <c r="AS4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -1274,22 +1274,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
@@ -1335,16 +1335,16 @@
         <v>11</v>
       </c>
       <c r="AD6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH6" t="n">
         <v>29</v>
@@ -1365,19 +1365,19 @@
         <v>151</v>
       </c>
       <c r="AN6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP6" t="n">
         <v>9</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>9.5</v>
       </c>
       <c r="AQ6" t="n">
         <v>21</v>
       </c>
       <c r="AR6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AS6" t="n">
         <v>26</v>
@@ -1415,113 +1415,113 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J7" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="X7" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="Z7" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AC7" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF7" t="n">
         <v>34</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI7" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AJ7" t="n">
         <v>6.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM7" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AN7" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AO7" t="n">
         <v>11</v>
       </c>
       <c r="AP7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AQ7" t="n">
         <v>21</v>
       </c>
       <c r="AR7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AS7" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -1556,28 +1556,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H8" t="n">
         <v>3.35</v>
       </c>
       <c r="I8" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="J8" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
         <v>2.15</v>
       </c>
       <c r="L8" t="n">
-        <v>2.45</v>
+        <v>2.52</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="O8" t="n">
         <v>1.35</v>
@@ -1606,13 +1606,13 @@
         <v>1.26</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="Z8" t="n">
         <v>2.8</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="AB8" t="n">
         <v>1.83</v>
@@ -1621,28 +1621,28 @@
         <v>9.75</v>
       </c>
       <c r="AD8" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG8" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AH8" t="n">
         <v>45</v>
       </c>
       <c r="AI8" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AK8" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL8" t="n">
         <v>80</v>
@@ -1657,13 +1657,13 @@
         <v>8.75</v>
       </c>
       <c r="AP8" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AQ8" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AR8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS8" t="n">
         <v>30</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-04.xlsx
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J2" t="n">
         <v>4.5</v>
@@ -722,10 +722,10 @@
         <v>2.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S2" t="n">
         <v>2.4</v>
@@ -782,7 +782,7 @@
         <v>6</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL2" t="n">
         <v>67</v>
@@ -990,10 +990,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="H4" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I4" t="n">
         <v>7.5</v>
@@ -1042,10 +1042,10 @@
         <v>2.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AC4" t="n">
         <v>5</v>
@@ -1057,7 +1057,7 @@
         <v>9</v>
       </c>
       <c r="AF4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG4" t="n">
         <v>15</v>
@@ -1072,7 +1072,7 @@
         <v>7.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL4" t="n">
         <v>101</v>
@@ -1088,7 +1088,7 @@
         <v>23</v>
       </c>
       <c r="AQ4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR4" t="n">
         <v>67</v>
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
@@ -1141,16 +1141,16 @@
         <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
         <v>3.6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.44</v>
@@ -1165,33 +1165,33 @@
         <v>2.1</v>
       </c>
       <c r="S5" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="X5" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD5" t="n">
         <v>12</v>
@@ -1206,7 +1206,7 @@
         <v>23</v>
       </c>
       <c r="AH5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI5" t="n">
         <v>7.5</v>
@@ -1556,10 +1556,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H8" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
         <v>1.98</v>
@@ -1568,30 +1568,30 @@
         <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L8" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="P8" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="T8" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="U8" t="n">
         <v>2.27</v>
@@ -1600,73 +1600,73 @@
         <v>1.6</v>
       </c>
       <c r="W8" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="X8" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AE8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF8" t="n">
         <v>50</v>
       </c>
       <c r="AG8" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AH8" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI8" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AM8" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AN8" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="AO8" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AP8" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AQ8" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AR8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS8" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">

--- a/Jogos_da_Semana_FlashScore_2025-02-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-04.xlsx
@@ -841,16 +841,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H3" t="n">
         <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
@@ -859,10 +859,10 @@
         <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -910,13 +910,13 @@
         <v>5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
         <v>9</v>
       </c>
       <c r="AF3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG3" t="n">
         <v>17</v>
@@ -1014,10 +1014,10 @@
         <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
@@ -1066,23 +1066,23 @@
         <v>41</v>
       </c>
       <c r="AI4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AJ4" t="n">
         <v>7.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
         <v>101</v>
       </c>
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP4" t="n">
         <v>23</v>
@@ -1150,7 +1150,7 @@
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
         <v>1.44</v>
@@ -1274,22 +1274,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
@@ -1344,7 +1344,7 @@
         <v>34</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH6" t="n">
         <v>29</v>
@@ -1556,34 +1556,34 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I8" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K8" t="n">
         <v>2.12</v>
       </c>
       <c r="L8" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
         <v>7.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P8" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
@@ -1609,28 +1609,28 @@
         <v>1.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="AC8" t="n">
         <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG8" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AH8" t="n">
         <v>40</v>
@@ -1648,25 +1648,25 @@
         <v>70</v>
       </c>
       <c r="AM8" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AN8" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AO8" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AP8" t="n">
         <v>8.5</v>
       </c>
       <c r="AQ8" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AR8" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AS8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
@@ -1701,58 +1701,58 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="H9" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="I9" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="J9" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="K9" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="L9" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="P9" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="T9" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="X9" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="Y9" t="n">
         <v>1.2</v>
       </c>
       <c r="Z9" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AC9" t="n">
         <v>40</v>
@@ -1773,10 +1773,10 @@
         <v>70</v>
       </c>
       <c r="AI9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AK9" t="n">
         <v>21</v>
@@ -1788,7 +1788,7 @@
         <v>400</v>
       </c>
       <c r="AN9" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AO9" t="n">
         <v>8.25</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-04.xlsx
@@ -722,10 +722,10 @@
         <v>2.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R2" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
         <v>2.4</v>
@@ -859,10 +859,10 @@
         <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -871,28 +871,28 @@
         <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R3" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="V3" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W3" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="X3" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="Y3" t="n">
         <v>1.53</v>
@@ -990,22 +990,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="H4" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -1042,10 +1042,10 @@
         <v>2.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AC4" t="n">
         <v>5</v>
@@ -1057,7 +1057,7 @@
         <v>9</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG4" t="n">
         <v>15</v>
@@ -1066,7 +1066,7 @@
         <v>41</v>
       </c>
       <c r="AI4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AJ4" t="n">
         <v>7.5</v>
@@ -1075,23 +1075,23 @@
         <v>23</v>
       </c>
       <c r="AL4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP4" t="n">
         <v>23</v>
       </c>
       <c r="AQ4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS4" t="n">
         <v>67</v>
@@ -1153,10 +1153,10 @@
         <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
         <v>1.78</v>
@@ -1274,65 +1274,65 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
         <v>2.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L6" t="n">
         <v>2.88</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="X6" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AB6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AC6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
         <v>17</v>
@@ -1344,13 +1344,13 @@
         <v>34</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="n">
         <v>6.5</v>
@@ -1362,10 +1362,10 @@
         <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AN6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AO6" t="n">
         <v>11</v>
@@ -1415,13 +1415,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J7" t="n">
         <v>3.75</v>
@@ -1430,27 +1430,27 @@
         <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
@@ -1461,10 +1461,10 @@
         <v>1.3</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AA7" t="n">
         <v>1.8</v>
@@ -1473,10 +1473,10 @@
         <v>1.91</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE7" t="n">
         <v>12</v>
@@ -1491,7 +1491,7 @@
         <v>34</v>
       </c>
       <c r="AI7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="n">
         <v>6.5</v>
@@ -1506,13 +1506,13 @@
         <v>251</v>
       </c>
       <c r="AN7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AO7" t="n">
         <v>11</v>
       </c>
       <c r="AP7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AQ7" t="n">
         <v>21</v>
@@ -1556,25 +1556,25 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="H8" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="J8" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="K8" t="n">
         <v>2.12</v>
       </c>
       <c r="L8" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
         <v>7.1</v>
@@ -1609,7 +1609,7 @@
         <v>1.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="AA8" t="n">
         <v>1.78</v>
@@ -1618,19 +1618,19 @@
         <v>1.93</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD8" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE8" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF8" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AG8" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AH8" t="n">
         <v>40</v>
@@ -1651,19 +1651,19 @@
         <v>500</v>
       </c>
       <c r="AN8" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="AP8" t="n">
         <v>8.5</v>
       </c>
       <c r="AQ8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR8" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AS8" t="n">
         <v>27</v>
@@ -1701,22 +1701,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>10.5</v>
+        <v>9.25</v>
       </c>
       <c r="H9" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="J9" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="K9" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -1724,23 +1724,23 @@
         <v>1.09</v>
       </c>
       <c r="P9" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="T9" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="X9" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="Y9" t="n">
         <v>1.2</v>
@@ -1749,10 +1749,10 @@
         <v>4.1</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="AB9" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AC9" t="n">
         <v>40</v>
@@ -1761,49 +1761,49 @@
         <v>90</v>
       </c>
       <c r="AE9" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AF9" t="n">
+        <v>250</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>90</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM9" t="n">
         <v>300</v>
       </c>
-      <c r="AG9" t="n">
-        <v>110</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>70</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>400</v>
-      </c>
       <c r="AN9" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AP9" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AR9" t="n">
         <v>9.75</v>
       </c>
       <c r="AS9" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-02-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-04.xlsx
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K2" t="n">
         <v>1.95</v>
@@ -752,25 +752,25 @@
         <v>2.38</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
         <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AH2" t="n">
         <v>41</v>
@@ -794,16 +794,16 @@
         <v>6</v>
       </c>
       <c r="AO2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP2" t="n">
         <v>9.5</v>
       </c>
       <c r="AQ2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR2" t="n">
         <v>19</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>21</v>
       </c>
       <c r="AS2" t="n">
         <v>34</v>
@@ -841,13 +841,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="J3" t="n">
         <v>2.5</v>
@@ -856,7 +856,7 @@
         <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
@@ -871,28 +871,28 @@
         <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U3" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="V3" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W3" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="X3" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="Y3" t="n">
         <v>1.53</v>
@@ -901,13 +901,13 @@
         <v>2.38</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AC3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AD3" t="n">
         <v>7</v>
@@ -940,19 +940,19 @@
         <v>101</v>
       </c>
       <c r="AN3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS3" t="n">
         <v>51</v>
@@ -1129,22 +1129,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
         <v>2.8</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
         <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
@@ -1165,10 +1165,10 @@
         <v>2.1</v>
       </c>
       <c r="S5" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
@@ -1185,10 +1185,10 @@
         <v>2.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AC5" t="n">
         <v>7.5</v>
@@ -1209,22 +1209,22 @@
         <v>34</v>
       </c>
       <c r="AI5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AJ5" t="n">
         <v>6</v>
       </c>
       <c r="AK5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL5" t="n">
         <v>51</v>
       </c>
       <c r="AM5" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AN5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AO5" t="n">
         <v>13</v>
@@ -1236,10 +1236,10 @@
         <v>29</v>
       </c>
       <c r="AR5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AS5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -1277,65 +1277,65 @@
         <v>3.3</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="T6" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="X6" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="AB6" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
@@ -1344,43 +1344,43 @@
         <v>34</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO6" t="n">
         <v>10</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>11</v>
-      </c>
       <c r="AP6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ6" t="n">
         <v>21</v>
       </c>
       <c r="AR6" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AS6" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -1415,13 +1415,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H7" t="n">
         <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J7" t="n">
         <v>3.75</v>
@@ -1467,10 +1467,10 @@
         <v>2.75</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AC7" t="n">
         <v>10</v>
@@ -1503,25 +1503,25 @@
         <v>51</v>
       </c>
       <c r="AM7" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AN7" t="n">
         <v>8</v>
       </c>
       <c r="AO7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP7" t="n">
         <v>9</v>
       </c>
       <c r="AQ7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AS7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -1701,22 +1701,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="I9" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="J9" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="K9" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="L9" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -1743,10 +1743,10 @@
         <v>2</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="Z9" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="AA9" t="n">
         <v>1.62</v>
@@ -1755,22 +1755,22 @@
         <v>2.15</v>
       </c>
       <c r="AC9" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AD9" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AE9" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AF9" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AG9" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI9" t="n">
         <v>30</v>
@@ -1788,10 +1788,10 @@
         <v>300</v>
       </c>
       <c r="AN9" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AO9" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AP9" t="n">
         <v>9.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-04.xlsx
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H2" t="n">
         <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
         <v>4.75</v>
@@ -707,7 +707,7 @@
         <v>1.95</v>
       </c>
       <c r="L2" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.1</v>
@@ -773,7 +773,7 @@
         <v>41</v>
       </c>
       <c r="AH2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI2" t="n">
         <v>7</v>
@@ -841,19 +841,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L3" t="n">
         <v>5.5</v>
@@ -865,16 +865,16 @@
         <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R3" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S3" t="n">
         <v>2.5</v>
@@ -883,10 +883,10 @@
         <v>1.5</v>
       </c>
       <c r="U3" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="W3" t="n">
         <v>5</v>
@@ -910,16 +910,16 @@
         <v>5.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE3" t="n">
         <v>9</v>
       </c>
       <c r="AF3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH3" t="n">
         <v>41</v>
@@ -1129,19 +1129,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H5" t="n">
         <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L5" t="n">
         <v>3.5</v>
@@ -1173,10 +1173,10 @@
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="X5" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Y5" t="n">
         <v>1.5</v>
@@ -1209,7 +1209,7 @@
         <v>34</v>
       </c>
       <c r="AI5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ5" t="n">
         <v>6</v>
@@ -1221,7 +1221,7 @@
         <v>51</v>
       </c>
       <c r="AM5" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AN5" t="n">
         <v>8</v>
@@ -1274,65 +1274,65 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
         <v>2.3</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="T6" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="X6" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AA6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AB6" t="n">
         <v>1.91</v>
       </c>
-      <c r="AB6" t="n">
-        <v>1.8</v>
-      </c>
       <c r="AC6" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD6" t="n">
         <v>15</v>
@@ -1344,13 +1344,13 @@
         <v>34</v>
       </c>
       <c r="AG6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI6" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AJ6" t="n">
         <v>6</v>
@@ -1362,25 +1362,25 @@
         <v>51</v>
       </c>
       <c r="AM6" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AN6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AQ6" t="n">
         <v>21</v>
       </c>
       <c r="AR6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AS6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
@@ -1415,13 +1415,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H7" t="n">
         <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J7" t="n">
         <v>3.75</v>
@@ -1447,18 +1447,18 @@
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="T7" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="X7" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Y7" t="n">
         <v>1.4</v>
@@ -1497,10 +1497,10 @@
         <v>6.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM7" t="n">
         <v>201</v>
@@ -1509,13 +1509,13 @@
         <v>8</v>
       </c>
       <c r="AO7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP7" t="n">
         <v>9</v>
       </c>
       <c r="AQ7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR7" t="n">
         <v>17</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-04.xlsx
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H2" t="n">
         <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J2" t="n">
         <v>4.75</v>
@@ -707,7 +707,7 @@
         <v>1.95</v>
       </c>
       <c r="L2" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M2" t="n">
         <v>1.1</v>
@@ -773,7 +773,7 @@
         <v>41</v>
       </c>
       <c r="AH2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI2" t="n">
         <v>7</v>
@@ -841,28 +841,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K3" t="n">
         <v>1.95</v>
       </c>
       <c r="L3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -871,10 +871,10 @@
         <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R3" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S3" t="n">
         <v>2.5</v>
@@ -895,10 +895,10 @@
         <v>1.17</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AA3" t="n">
         <v>2.2</v>
@@ -910,13 +910,13 @@
         <v>5.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG3" t="n">
         <v>19</v>
@@ -940,13 +940,13 @@
         <v>101</v>
       </c>
       <c r="AN3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ3" t="n">
         <v>51</v>
@@ -990,28 +990,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H4" t="n">
         <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.4</v>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO4" t="n">
         <v>34</v>
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="AR4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS4" t="n">
         <v>67</v>
@@ -1129,16 +1129,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H5" t="n">
         <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
         <v>2.05</v>
@@ -1179,19 +1179,19 @@
         <v>1.25</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
         <v>12</v>
@@ -1203,13 +1203,13 @@
         <v>26</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH5" t="n">
         <v>34</v>
       </c>
       <c r="AI5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ5" t="n">
         <v>6</v>
@@ -1221,10 +1221,10 @@
         <v>51</v>
       </c>
       <c r="AM5" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AN5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AO5" t="n">
         <v>13</v>
@@ -1274,13 +1274,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I6" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J6" t="n">
         <v>3.75</v>
@@ -1289,19 +1289,19 @@
         <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>2.05</v>
       </c>
       <c r="T6" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
@@ -1332,10 +1332,10 @@
         <v>1.91</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
@@ -1350,7 +1350,7 @@
         <v>34</v>
       </c>
       <c r="AI6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ6" t="n">
         <v>6</v>
@@ -1415,113 +1415,113 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="H7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J7" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.75</v>
       </c>
       <c r="K7" t="n">
         <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O7" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="T7" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="X7" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AB7" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AC7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE7" t="n">
         <v>10</v>
       </c>
-      <c r="AD7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>12</v>
-      </c>
       <c r="AF7" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AH7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK7" t="n">
         <v>13</v>
       </c>
       <c r="AL7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM7" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AN7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR7" t="n">
         <v>21</v>
       </c>
-      <c r="AR7" t="n">
-        <v>17</v>
-      </c>
       <c r="AS7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">

--- a/Jogos_da_Semana_FlashScore_2025-02-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-04.xlsx
@@ -692,22 +692,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="H2" t="n">
         <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="J2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
         <v>1.95</v>
       </c>
       <c r="L2" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.1</v>
@@ -722,10 +722,10 @@
         <v>2.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="S2" t="n">
         <v>2.4</v>
@@ -758,22 +758,22 @@
         <v>1.67</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE2" t="n">
         <v>15</v>
       </c>
       <c r="AF2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="n">
         <v>41</v>
       </c>
       <c r="AH2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI2" t="n">
         <v>7</v>
@@ -791,13 +791,13 @@
         <v>501</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AQ2" t="n">
         <v>17</v>
@@ -859,10 +859,10 @@
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -993,16 +993,16 @@
         <v>1.5</v>
       </c>
       <c r="H4" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
         <v>7.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L4" t="n">
         <v>7.5</v>
@@ -1011,29 +1011,29 @@
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="T4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="X4" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Y4" t="n">
         <v>1.5</v>
@@ -1042,10 +1042,10 @@
         <v>2.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AC4" t="n">
         <v>5</v>
@@ -1066,7 +1066,7 @@
         <v>41</v>
       </c>
       <c r="AI4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AJ4" t="n">
         <v>7.5</v>
@@ -1075,11 +1075,11 @@
         <v>23</v>
       </c>
       <c r="AL4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO4" t="n">
         <v>34</v>
@@ -1173,10 +1173,10 @@
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="X5" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Y5" t="n">
         <v>1.44</v>
@@ -1295,7 +1295,7 @@
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
         <v>1.3</v>
@@ -1306,18 +1306,18 @@
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="T6" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="X6" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Y6" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-04.xlsx
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H2" t="n">
         <v>3.2</v>
@@ -722,10 +722,10 @@
         <v>2.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="R2" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
         <v>2.4</v>
@@ -746,10 +746,10 @@
         <v>1.18</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="AA2" t="n">
         <v>2.1</v>
@@ -797,7 +797,7 @@
         <v>8</v>
       </c>
       <c r="AP2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AQ2" t="n">
         <v>17</v>
@@ -841,13 +841,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
         <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J3" t="n">
         <v>2.75</v>
@@ -871,16 +871,16 @@
         <v>2.5</v>
       </c>
       <c r="Q3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.9</v>
       </c>
-      <c r="R3" t="n">
-        <v>1.95</v>
-      </c>
       <c r="S3" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="T3" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="U3" t="n">
         <v>4.1</v>
@@ -901,10 +901,10 @@
         <v>2.25</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AC3" t="n">
         <v>5.5</v>
@@ -928,19 +928,19 @@
         <v>6.5</v>
       </c>
       <c r="AJ3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM3" t="n">
         <v>101</v>
       </c>
       <c r="AN3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO3" t="n">
         <v>21</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-04.xlsx
@@ -841,22 +841,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K3" t="n">
         <v>1.95</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
@@ -871,22 +871,22 @@
         <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R3" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S3" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="U3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W3" t="n">
         <v>5</v>
@@ -901,22 +901,22 @@
         <v>2.25</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AC3" t="n">
         <v>5.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE3" t="n">
         <v>9.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG3" t="n">
         <v>19</v>
@@ -928,13 +928,13 @@
         <v>6.5</v>
       </c>
       <c r="AJ3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM3" t="n">
         <v>101</v>
@@ -946,7 +946,7 @@
         <v>21</v>
       </c>
       <c r="AP3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ3" t="n">
         <v>51</v>
